--- a/distancemoindrecarre/moindrecarre2.xlsx
+++ b/distancemoindrecarre/moindrecarre2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\distancemoindrecarre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/distancemoindrecarre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8434CAF6-BB93-453A-A77B-85843101AD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9849BEC3-B51D-7D45-B693-8B8D9747F56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -164,50 +164,14 @@
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.5597374227592619E-2"/>
-                  <c:y val="-0.37262830146231724"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$2:$A$26</c:f>
+              <c:f>Feuil1!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0" formatCode="0.00">
                   <c:v>878</c:v>
                 </c:pt>
@@ -217,70 +181,67 @@
                 <c:pt idx="2" formatCode="0.00">
                   <c:v>728.94</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>728.94</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>818.36</c:v>
                 </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>363.62</c:v>
+                </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>363.62</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
                   <c:v>410</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>162.71</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>162.71</c:v>
+                  <c:v>137.63999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137.63999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>126.26</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00">
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>878</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="10">
                   <c:v>888</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0.00">
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>610</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>466.89</c:v>
+                </c:pt>
                 <c:pt idx="13">
-                  <c:v>466.89</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>345.71</c:v>
                 </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>239.27</c:v>
+                </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>239.27</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00">
-                  <c:v>200</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00">
-                  <c:v>470</c:v>
+                  <c:v>53.96</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
-                  <c:v>53.96</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00">
-                  <c:v>405</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00">
-                  <c:v>512</c:v>
+                  <c:v>249.25</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
-                  <c:v>249.25</c:v>
+                  <c:v>655.61</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00">
-                  <c:v>655.61</c:v>
+                  <c:v>528.49</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00">
-                  <c:v>528.49</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00">
                   <c:v>596.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -288,10 +249,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$26</c:f>
+              <c:f>Feuil1!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -302,69 +263,66 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>200</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="24">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -430,7 +388,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>REL (inverse)</a:t>
+                  <a:t>REL</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1229,13 +1187,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>320675</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>320675</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1561,26 +1519,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="10.81640625" style="2"/>
+    <col min="2" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>878</v>
       </c>
@@ -1588,11 +1546,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>502</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>20</v>
       </c>
       <c r="D3" s="2"/>
@@ -1601,7 +1559,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>728.94</v>
       </c>
@@ -1614,181 +1572,173 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>728.94</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>818.36</v>
       </c>
-      <c r="B6">
+      <c r="B5" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>363.62</v>
+      </c>
+      <c r="B6" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>363.62</v>
+        <v>410</v>
       </c>
       <c r="B7" s="2">
+        <v>150</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>162.71</v>
+      </c>
+      <c r="B8" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>137.63999999999999</v>
+      </c>
+      <c r="B9" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>126.26</v>
+      </c>
+      <c r="B10" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>878</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>888</v>
+      </c>
+      <c r="B12" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>610</v>
+      </c>
+      <c r="B13" s="2">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>466.89</v>
+      </c>
+      <c r="B14" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>345.71</v>
+      </c>
+      <c r="B15" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>239.27</v>
+      </c>
+      <c r="B16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>200</v>
+      </c>
+      <c r="B17" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>470</v>
+      </c>
+      <c r="B18" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>410</v>
-      </c>
-      <c r="B8" s="2">
-        <v>150</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>162.71</v>
-      </c>
-      <c r="B9">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>53.96</v>
+      </c>
+      <c r="B19" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>405</v>
+      </c>
+      <c r="B20" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>512</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>249.25</v>
+      </c>
+      <c r="B22" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>137.63999999999999</v>
-      </c>
-      <c r="B10">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>126.26</v>
-      </c>
-      <c r="B11">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>878</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>888</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>610</v>
-      </c>
-      <c r="B14" s="1">
-        <v>25</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>466.89</v>
-      </c>
-      <c r="B15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>345.71</v>
-      </c>
-      <c r="B16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>239.27</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>200</v>
-      </c>
-      <c r="B18">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>470</v>
-      </c>
-      <c r="B19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>53.96</v>
-      </c>
-      <c r="B20">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>405</v>
-      </c>
-      <c r="B21">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>512</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>249.25</v>
-      </c>
-      <c r="B23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>655.61</v>
+      </c>
+      <c r="B23" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>655.61</v>
-      </c>
-      <c r="B24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>528.49</v>
+      </c>
+      <c r="B24" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>528.49</v>
-      </c>
-      <c r="B25">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
         <v>596.25</v>
       </c>
-      <c r="B26">
+      <c r="B25" s="2">
         <v>80</v>
       </c>
     </row>

--- a/distancemoindrecarre/moindrecarre2.xlsx
+++ b/distancemoindrecarre/moindrecarre2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/distancemoindrecarre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\distancemoindrecarre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9849BEC3-B51D-7D45-B693-8B8D9747F56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03431E87-0827-40F0-B1F6-5F8B4334985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="-28920" yWindow="7485" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,43 @@
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.8911063789982225E-2"/>
+                  <c:y val="-0.51263676040494943"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1525,12 +1561,12 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="8" width="10.83203125" style="2"/>
+    <col min="2" max="8" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1538,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>878</v>
       </c>
@@ -1546,7 +1582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>502</v>
       </c>
@@ -1559,7 +1595,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>728.94</v>
       </c>
@@ -1572,7 +1608,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>818.36</v>
       </c>
@@ -1580,7 +1616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>363.62</v>
       </c>
@@ -1588,7 +1624,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>410</v>
       </c>
@@ -1597,7 +1633,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>162.71</v>
       </c>
@@ -1605,7 +1641,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>137.63999999999999</v>
       </c>
@@ -1613,7 +1649,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>126.26</v>
       </c>
@@ -1621,7 +1657,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>878</v>
       </c>
@@ -1629,7 +1665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>888</v>
       </c>
@@ -1637,7 +1673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>610</v>
       </c>
@@ -1646,7 +1682,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>466.89</v>
       </c>
@@ -1654,7 +1690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>345.71</v>
       </c>
@@ -1662,7 +1698,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>239.27</v>
       </c>
@@ -1670,7 +1706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>200</v>
       </c>
@@ -1678,7 +1714,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>470</v>
       </c>
@@ -1686,7 +1722,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>53.96</v>
       </c>
@@ -1694,7 +1730,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>405</v>
       </c>
@@ -1702,7 +1738,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>512</v>
       </c>
@@ -1710,7 +1746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>249.25</v>
       </c>
@@ -1718,7 +1754,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>655.61</v>
       </c>
@@ -1726,7 +1762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>528.49</v>
       </c>
@@ -1734,7 +1770,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>596.25</v>
       </c>

--- a/distancemoindrecarre/moindrecarre2.xlsx
+++ b/distancemoindrecarre/moindrecarre2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\distancemoindrecarre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/distancemoindrecarre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03431E87-0827-40F0-B1F6-5F8B4334985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEF9C06-D941-5640-8FD1-6DCA808DE774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7485" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -164,43 +164,7 @@
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.8911063789982225E-2"/>
-                  <c:y val="-0.51263676040494943"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -424,7 +388,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>REL</a:t>
+                  <a:t>REL (inverse)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1561,12 +1525,12 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="8" width="10.81640625" style="2"/>
+    <col min="2" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1574,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>878</v>
       </c>
@@ -1582,7 +1546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>502</v>
       </c>
@@ -1595,7 +1559,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>728.94</v>
       </c>
@@ -1608,7 +1572,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>818.36</v>
       </c>
@@ -1616,7 +1580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>363.62</v>
       </c>
@@ -1624,7 +1588,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>410</v>
       </c>
@@ -1633,7 +1597,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>162.71</v>
       </c>
@@ -1641,7 +1605,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>137.63999999999999</v>
       </c>
@@ -1649,7 +1613,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>126.26</v>
       </c>
@@ -1657,7 +1621,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>878</v>
       </c>
@@ -1665,7 +1629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>888</v>
       </c>
@@ -1673,7 +1637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>610</v>
       </c>
@@ -1682,7 +1646,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>466.89</v>
       </c>
@@ -1690,7 +1654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>345.71</v>
       </c>
@@ -1698,7 +1662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>239.27</v>
       </c>
@@ -1706,7 +1670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>200</v>
       </c>
@@ -1714,7 +1678,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>470</v>
       </c>
@@ -1722,7 +1686,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>53.96</v>
       </c>
@@ -1730,7 +1694,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>405</v>
       </c>
@@ -1738,7 +1702,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>512</v>
       </c>
@@ -1746,7 +1710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>249.25</v>
       </c>
@@ -1754,7 +1718,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>655.61</v>
       </c>
@@ -1762,7 +1726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>528.49</v>
       </c>
@@ -1770,7 +1734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>596.25</v>
       </c>
